--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/61_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -544,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +659,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.220926448265725</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1844888277257527</v>
+        <v>0.2292832189136331</v>
       </c>
       <c r="F2">
-        <v>0.146051722883264</v>
+        <v>0.09407438916884261</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1110127260239029</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004462477610108365</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -692,67 +698,67 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05057170199383092</v>
+        <v>0.01567226188855268</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04787201471968249</v>
       </c>
       <c r="N2">
-        <v>0.1060240192015539</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.009887987049081361</v>
+        <v>0.1452884344364642</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001688294091832426</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.02114595774189774</v>
+        <v>0.008452096457880462</v>
       </c>
       <c r="S2">
-        <v>0.07232312432653053</v>
+        <v>0.01978881127667173</v>
       </c>
       <c r="T2">
-        <v>0.003699132503106689</v>
+        <v>0.05413820201975984</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01366672262426629</v>
       </c>
       <c r="V2">
-        <v>0.04525675555761163</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.07006685818470805</v>
       </c>
       <c r="X2">
-        <v>0.02359475062994405</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.02359500333443535</v>
+        <v>0.03442990511601708</v>
       </c>
       <c r="Z2">
-        <v>0.05611947243510346</v>
+        <v>0.0069178816625737</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.087221621858022</v>
       </c>
       <c r="AB2">
-        <v>0.01602762179749123</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002103241264127646</v>
+        <v>0.01915629669121869</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.004558322243269392</v>
       </c>
       <c r="AE2">
-        <v>0.01649593919871151</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.03068981887159912</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -763,10 +769,13 @@
       <c r="AI2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0.00726417008192482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1376808949027615</v>
+        <v>0.1129906515350862</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4237001810906716</v>
+        <v>0.3248919432741574</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02830052484017615</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -796,70 +805,70 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.002122499761286698</v>
       </c>
       <c r="L3">
-        <v>0.0002536075354545008</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02670598144566798</v>
       </c>
       <c r="N3">
-        <v>0.07521170103578299</v>
+        <v>0.07223171127067399</v>
       </c>
       <c r="O3">
-        <v>0.02650921657872247</v>
+        <v>0.07478170243417812</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01008538608075656</v>
+        <v>0.03510610811339969</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1250088213659609</v>
+        <v>0.06089293136036755</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.03368140318654952</v>
+        <v>0.001174605266816657</v>
       </c>
       <c r="V3">
-        <v>0.02268204353572318</v>
+        <v>0.0130805804415602</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.02149834292715637</v>
       </c>
       <c r="X3">
-        <v>0.03797347814385769</v>
+        <v>0.04323958725855117</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.06660424517378731</v>
+        <v>0.09596772067934939</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.01580263954144162</v>
       </c>
       <c r="AB3">
-        <v>0.001307288079783204</v>
+        <v>0.02096797666967359</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.008440932476203198</v>
       </c>
       <c r="AE3">
-        <v>0.008666536380677246</v>
+        <v>0.01428927318480741</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.03106330025600925</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -868,12 +877,15 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002334672069335378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>0.02475151210361332</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,88 +894,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1641449435294445</v>
+        <v>0.193986046549966</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.1786438391707103</v>
       </c>
       <c r="F4">
-        <v>0.3625884154086267</v>
+        <v>0.09493882529734858</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0129459521539048</v>
       </c>
       <c r="H4">
-        <v>0.03565770598628428</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002346011367516524</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.011625756205607</v>
       </c>
       <c r="L4">
-        <v>0.006046275559817431</v>
+        <v>0.06344820762750607</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.001021357383045717</v>
       </c>
       <c r="N4">
-        <v>0.0786529409724868</v>
+        <v>0.1238766761379425</v>
       </c>
       <c r="O4">
-        <v>0.001749918643107959</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02279330636352453</v>
+        <v>0.002868291652127786</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02537433479874659</v>
       </c>
       <c r="S4">
-        <v>0.1487862701959948</v>
+        <v>0.04029084771273393</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.02400465862045287</v>
       </c>
       <c r="U4">
-        <v>0.03401491631305618</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.03645751077383207</v>
+        <v>0.0671086491683819</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.04168105500901204</v>
+        <v>0.01999699497264572</v>
       </c>
       <c r="Y4">
-        <v>0.006370271388141631</v>
+        <v>0.02746254083177083</v>
       </c>
       <c r="Z4">
-        <v>0.04924484697197596</v>
+        <v>0.04364875010612293</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01009751856923567</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01238486842080773</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01158642134575382</v>
+        <v>0.03260814882657146</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -972,15 +984,18 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01132172442685512</v>
       </c>
       <c r="AI4">
-        <v>0.0002252015389415149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001060747944511756</v>
+        <v>0.1988540320646729</v>
       </c>
       <c r="E5">
-        <v>0.1449448338917928</v>
+        <v>0.06965070396710306</v>
       </c>
       <c r="F5">
-        <v>0.2664575805046329</v>
+        <v>0.1358158410711957</v>
       </c>
       <c r="G5">
-        <v>0.1077919206168679</v>
+        <v>0.006152263830569653</v>
       </c>
       <c r="H5">
-        <v>0.004537291906204824</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1010,70 +1025,70 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01170190227478735</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04201164203131198</v>
       </c>
       <c r="M5">
-        <v>0.03399777733060494</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1473342503636893</v>
       </c>
       <c r="O5">
-        <v>0.1125421016221356</v>
+        <v>0.007383888863676438</v>
       </c>
       <c r="P5">
-        <v>0.0007783764541280451</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.01831648096308858</v>
       </c>
       <c r="R5">
-        <v>0.006201361978558502</v>
+        <v>0.02117276378901272</v>
       </c>
       <c r="S5">
-        <v>0.02394360095494947</v>
+        <v>0.06755243545549391</v>
       </c>
       <c r="T5">
-        <v>0.07318855129375663</v>
+        <v>0.0160492635212033</v>
       </c>
       <c r="U5">
-        <v>0.01281775657135562</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.05982115054705688</v>
       </c>
       <c r="W5">
-        <v>0.05163924051236533</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.03269358441674861</v>
       </c>
       <c r="Y5">
-        <v>0.02012568043614711</v>
+        <v>0.0004614332732031369</v>
       </c>
       <c r="Z5">
-        <v>0.0496397816293447</v>
+        <v>0.08813558481449985</v>
       </c>
       <c r="AA5">
-        <v>0.05422849568125691</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02454386834303442</v>
       </c>
       <c r="AC5">
-        <v>0.01135130659134793</v>
+        <v>0.0003184417548803606</v>
       </c>
       <c r="AD5">
-        <v>0.0082373735097958</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0355425654284788</v>
       </c>
       <c r="AF5">
-        <v>0.01651622057024322</v>
+        <v>0.003225033501748069</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1082,12 +1097,15 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>0.01326286972454487</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2364675958786759</v>
+        <v>0.186314361635917</v>
       </c>
       <c r="E6">
-        <v>0.08196103485697036</v>
+        <v>0.1783129619679877</v>
       </c>
       <c r="F6">
-        <v>0.2350049051688209</v>
+        <v>0.05581812392977374</v>
       </c>
       <c r="G6">
-        <v>0.002889341507151283</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02159664531163911</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1120,64 +1138,64 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01398430505883026</v>
+        <v>0.04896967811916524</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.006804712120033768</v>
       </c>
       <c r="N6">
-        <v>0.08752413348780622</v>
+        <v>0.1399804087345639</v>
       </c>
       <c r="O6">
-        <v>0.001411140070842918</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01272205525849713</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.03157084956095623</v>
       </c>
       <c r="S6">
-        <v>0.1098204572483507</v>
+        <v>0.02628740681755598</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01726131133512003</v>
       </c>
       <c r="U6">
-        <v>0.007681219177424844</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0551152932591016</v>
+        <v>0.07536033535755536</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.03439985229508899</v>
+        <v>0.03443072970759244</v>
       </c>
       <c r="Y6">
-        <v>0.02868329338703252</v>
+        <v>0.02239987436689955</v>
       </c>
       <c r="Z6">
-        <v>0.05045550173708574</v>
+        <v>0.09098122660098146</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.006797458871527095</v>
+        <v>0.02209139441855666</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01438170729951912</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01348576742515438</v>
+        <v>0.03816866043873077</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1186,9 +1204,12 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.005842581653868572</v>
       </c>
       <c r="AI6">
+        <v>0.005023675935222437</v>
+      </c>
+      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1199,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +1332,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,319 +1347,328 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.220926448265725</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4054152759914777</v>
+        <v>0.2292832189136331</v>
       </c>
       <c r="F2">
-        <v>0.5514669988747417</v>
+        <v>0.3233576080824757</v>
       </c>
       <c r="G2">
-        <v>0.5514669988747417</v>
+        <v>0.4343703341063786</v>
       </c>
       <c r="H2">
-        <v>0.5514669988747417</v>
+        <v>0.4348165818673894</v>
       </c>
       <c r="I2">
-        <v>0.5514669988747417</v>
+        <v>0.4348165818673894</v>
       </c>
       <c r="J2">
-        <v>0.5514669988747417</v>
+        <v>0.4348165818673894</v>
       </c>
       <c r="K2">
-        <v>0.5514669988747417</v>
+        <v>0.4348165818673894</v>
       </c>
       <c r="L2">
-        <v>0.6020387008685726</v>
+        <v>0.4504888437559421</v>
       </c>
       <c r="M2">
-        <v>0.6020387008685726</v>
+        <v>0.4983608584756246</v>
       </c>
       <c r="N2">
-        <v>0.7080627200701265</v>
+        <v>0.4983608584756246</v>
       </c>
       <c r="O2">
-        <v>0.7179507071192078</v>
+        <v>0.6436492929120887</v>
       </c>
       <c r="P2">
-        <v>0.7179507071192078</v>
+        <v>0.6436492929120887</v>
       </c>
       <c r="Q2">
-        <v>0.7196390012110403</v>
+        <v>0.6436492929120887</v>
       </c>
       <c r="R2">
-        <v>0.7407849589529381</v>
+        <v>0.6521013893699692</v>
       </c>
       <c r="S2">
-        <v>0.8131080832794686</v>
+        <v>0.671890200646641</v>
       </c>
       <c r="T2">
-        <v>0.8168072157825753</v>
+        <v>0.7260284026664008</v>
       </c>
       <c r="U2">
-        <v>0.8168072157825753</v>
+        <v>0.7396951252906671</v>
       </c>
       <c r="V2">
-        <v>0.862063971340187</v>
+        <v>0.7396951252906671</v>
       </c>
       <c r="W2">
-        <v>0.862063971340187</v>
+        <v>0.8097619834753751</v>
       </c>
       <c r="X2">
-        <v>0.8856587219701311</v>
+        <v>0.8097619834753751</v>
       </c>
       <c r="Y2">
-        <v>0.9092537253045664</v>
+        <v>0.8441918885913922</v>
       </c>
       <c r="Z2">
-        <v>0.9653731977396699</v>
+        <v>0.8511097702539658</v>
       </c>
       <c r="AA2">
-        <v>0.9653731977396699</v>
+        <v>0.9383313921119878</v>
       </c>
       <c r="AB2">
-        <v>0.9814008195371611</v>
+        <v>0.9383313921119878</v>
       </c>
       <c r="AC2">
-        <v>0.9835040608012887</v>
+        <v>0.9574876888032064</v>
       </c>
       <c r="AD2">
-        <v>0.9835040608012887</v>
+        <v>0.9620460110464758</v>
       </c>
       <c r="AE2">
+        <v>0.9620460110464758</v>
+      </c>
+      <c r="AF2">
+        <v>0.992735829918075</v>
+      </c>
+      <c r="AG2">
+        <v>0.992735829918075</v>
+      </c>
+      <c r="AH2">
+        <v>0.992735829918075</v>
+      </c>
+      <c r="AI2">
+        <v>0.992735829918075</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1129906515350862</v>
+      </c>
+      <c r="E3">
+        <v>0.1129906515350862</v>
+      </c>
+      <c r="F3">
+        <v>0.4378825948092436</v>
+      </c>
+      <c r="G3">
+        <v>0.4378825948092436</v>
+      </c>
+      <c r="H3">
+        <v>0.4378825948092436</v>
+      </c>
+      <c r="I3">
+        <v>0.4378825948092436</v>
+      </c>
+      <c r="J3">
+        <v>0.4378825948092436</v>
+      </c>
+      <c r="K3">
+        <v>0.4400050945705303</v>
+      </c>
+      <c r="L3">
+        <v>0.4400050945705303</v>
+      </c>
+      <c r="M3">
+        <v>0.4667110760161983</v>
+      </c>
+      <c r="N3">
+        <v>0.5389427872868723</v>
+      </c>
+      <c r="O3">
+        <v>0.6137244897210504</v>
+      </c>
+      <c r="P3">
+        <v>0.6137244897210504</v>
+      </c>
+      <c r="Q3">
+        <v>0.6488305978344501</v>
+      </c>
+      <c r="R3">
+        <v>0.6488305978344501</v>
+      </c>
+      <c r="S3">
+        <v>0.7097235291948176</v>
+      </c>
+      <c r="T3">
+        <v>0.7097235291948176</v>
+      </c>
+      <c r="U3">
+        <v>0.7108981344616343</v>
+      </c>
+      <c r="V3">
+        <v>0.7239787149031945</v>
+      </c>
+      <c r="W3">
+        <v>0.7454770578303509</v>
+      </c>
+      <c r="X3">
+        <v>0.788716645088902</v>
+      </c>
+      <c r="Y3">
+        <v>0.788716645088902</v>
+      </c>
+      <c r="Z3">
+        <v>0.8846843657682515</v>
+      </c>
+      <c r="AA3">
+        <v>0.9004870053096932</v>
+      </c>
+      <c r="AB3">
+        <v>0.9214549819793667</v>
+      </c>
+      <c r="AC3">
+        <v>0.9214549819793667</v>
+      </c>
+      <c r="AD3">
+        <v>0.9298959144555698</v>
+      </c>
+      <c r="AE3">
+        <v>0.9441851876403773</v>
+      </c>
+      <c r="AF3">
+        <v>0.9752484878963865</v>
+      </c>
+      <c r="AG3">
+        <v>0.9752484878963865</v>
+      </c>
+      <c r="AH3">
+        <v>0.9752484878963865</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.193986046549966</v>
+      </c>
+      <c r="E4">
+        <v>0.3726298857206762</v>
+      </c>
+      <c r="F4">
+        <v>0.4675687110180248</v>
+      </c>
+      <c r="G4">
+        <v>0.4805146631719296</v>
+      </c>
+      <c r="H4">
+        <v>0.4805146631719296</v>
+      </c>
+      <c r="I4">
+        <v>0.4828606745394461</v>
+      </c>
+      <c r="J4">
+        <v>0.4828606745394461</v>
+      </c>
+      <c r="K4">
+        <v>0.4944864307450532</v>
+      </c>
+      <c r="L4">
+        <v>0.5579346383725592</v>
+      </c>
+      <c r="M4">
+        <v>0.558955995755605</v>
+      </c>
+      <c r="N4">
+        <v>0.6828326718935475</v>
+      </c>
+      <c r="O4">
+        <v>0.6828326718935475</v>
+      </c>
+      <c r="P4">
+        <v>0.6828326718935475</v>
+      </c>
+      <c r="Q4">
+        <v>0.6857009635456752</v>
+      </c>
+      <c r="R4">
+        <v>0.7110752983444218</v>
+      </c>
+      <c r="S4">
+        <v>0.7513661460571558</v>
+      </c>
+      <c r="T4">
+        <v>0.7753708046776087</v>
+      </c>
+      <c r="U4">
+        <v>0.7753708046776087</v>
+      </c>
+      <c r="V4">
+        <v>0.8424794538459905</v>
+      </c>
+      <c r="W4">
+        <v>0.8424794538459905</v>
+      </c>
+      <c r="X4">
+        <v>0.8624764488186363</v>
+      </c>
+      <c r="Y4">
+        <v>0.8899389896504071</v>
+      </c>
+      <c r="Z4">
+        <v>0.93358773975653</v>
+      </c>
+      <c r="AA4">
+        <v>0.93358773975653</v>
+      </c>
+      <c r="AB4">
+        <v>0.9436852583257657</v>
+      </c>
+      <c r="AC4">
+        <v>0.9560701267465734</v>
+      </c>
+      <c r="AD4">
+        <v>0.9560701267465734</v>
+      </c>
+      <c r="AE4">
+        <v>0.9886782755731449</v>
+      </c>
+      <c r="AF4">
+        <v>0.9886782755731449</v>
+      </c>
+      <c r="AG4">
+        <v>0.9886782755731449</v>
+      </c>
+      <c r="AH4">
         <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.1376808949027615</v>
-      </c>
-      <c r="E3">
-        <v>0.1376808949027615</v>
-      </c>
-      <c r="F3">
-        <v>0.5613810759934331</v>
-      </c>
-      <c r="G3">
-        <v>0.5613810759934331</v>
-      </c>
-      <c r="H3">
-        <v>0.5896816008336093</v>
-      </c>
-      <c r="I3">
-        <v>0.5896816008336093</v>
-      </c>
-      <c r="J3">
-        <v>0.5896816008336093</v>
-      </c>
-      <c r="K3">
-        <v>0.5896816008336093</v>
-      </c>
-      <c r="L3">
-        <v>0.5899352083690638</v>
-      </c>
-      <c r="M3">
-        <v>0.5899352083690638</v>
-      </c>
-      <c r="N3">
-        <v>0.6651469094048468</v>
-      </c>
-      <c r="O3">
-        <v>0.6916561259835693</v>
-      </c>
-      <c r="P3">
-        <v>0.6916561259835693</v>
-      </c>
-      <c r="Q3">
-        <v>0.7017415120643259</v>
-      </c>
-      <c r="R3">
-        <v>0.7017415120643259</v>
-      </c>
-      <c r="S3">
-        <v>0.8267503334302868</v>
-      </c>
-      <c r="T3">
-        <v>0.8267503334302868</v>
-      </c>
-      <c r="U3">
-        <v>0.8604317366168364</v>
-      </c>
-      <c r="V3">
-        <v>0.8831137801525596</v>
-      </c>
-      <c r="W3">
-        <v>0.8831137801525596</v>
-      </c>
-      <c r="X3">
-        <v>0.9210872582964172</v>
-      </c>
-      <c r="Y3">
-        <v>0.9210872582964172</v>
-      </c>
-      <c r="Z3">
-        <v>0.9876915034702045</v>
-      </c>
-      <c r="AA3">
-        <v>0.9876915034702045</v>
-      </c>
-      <c r="AB3">
-        <v>0.9889987915499877</v>
-      </c>
-      <c r="AC3">
-        <v>0.9889987915499877</v>
-      </c>
-      <c r="AD3">
-        <v>0.9889987915499877</v>
-      </c>
-      <c r="AE3">
-        <v>0.997665327930665</v>
-      </c>
-      <c r="AF3">
-        <v>0.997665327930665</v>
-      </c>
-      <c r="AG3">
-        <v>0.997665327930665</v>
-      </c>
-      <c r="AH3">
-        <v>0.997665327930665</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.1641449435294445</v>
-      </c>
-      <c r="E4">
-        <v>0.1641449435294445</v>
-      </c>
-      <c r="F4">
-        <v>0.5267333589380712</v>
-      </c>
-      <c r="G4">
-        <v>0.5267333589380712</v>
-      </c>
-      <c r="H4">
-        <v>0.5623910649243554</v>
-      </c>
-      <c r="I4">
-        <v>0.5623910649243554</v>
-      </c>
-      <c r="J4">
-        <v>0.5623910649243554</v>
-      </c>
-      <c r="K4">
-        <v>0.5623910649243554</v>
-      </c>
-      <c r="L4">
-        <v>0.5684373404841728</v>
-      </c>
-      <c r="M4">
-        <v>0.5684373404841728</v>
-      </c>
-      <c r="N4">
-        <v>0.6470902814566596</v>
-      </c>
-      <c r="O4">
-        <v>0.6488402000997675</v>
-      </c>
-      <c r="P4">
-        <v>0.6488402000997675</v>
-      </c>
-      <c r="Q4">
-        <v>0.671633506463292</v>
-      </c>
-      <c r="R4">
-        <v>0.671633506463292</v>
-      </c>
-      <c r="S4">
-        <v>0.8204197766592868</v>
-      </c>
-      <c r="T4">
-        <v>0.8204197766592868</v>
-      </c>
-      <c r="U4">
-        <v>0.854434692972343</v>
-      </c>
-      <c r="V4">
-        <v>0.8908922037461751</v>
-      </c>
-      <c r="W4">
-        <v>0.8908922037461751</v>
-      </c>
-      <c r="X4">
-        <v>0.9325732587551872</v>
-      </c>
-      <c r="Y4">
-        <v>0.9389435301433288</v>
-      </c>
-      <c r="Z4">
-        <v>0.9881883771153047</v>
-      </c>
-      <c r="AA4">
-        <v>0.9881883771153047</v>
-      </c>
-      <c r="AB4">
-        <v>0.9881883771153047</v>
-      </c>
-      <c r="AC4">
-        <v>0.9881883771153047</v>
-      </c>
-      <c r="AD4">
-        <v>0.9881883771153047</v>
-      </c>
-      <c r="AE4">
-        <v>0.9997747984610585</v>
-      </c>
-      <c r="AF4">
-        <v>0.9997747984610585</v>
-      </c>
-      <c r="AG4">
-        <v>0.9997747984610585</v>
-      </c>
-      <c r="AH4">
-        <v>0.9997747984610585</v>
       </c>
       <c r="AI4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,105 +1677,108 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001060747944511756</v>
+        <v>0.1988540320646729</v>
       </c>
       <c r="E5">
-        <v>0.1460055818363045</v>
+        <v>0.268504736031776</v>
       </c>
       <c r="F5">
-        <v>0.4124631623409375</v>
+        <v>0.4043205771029716</v>
       </c>
       <c r="G5">
-        <v>0.5202550829578054</v>
+        <v>0.4104728409335413</v>
       </c>
       <c r="H5">
-        <v>0.5247923748640102</v>
+        <v>0.4104728409335413</v>
       </c>
       <c r="I5">
-        <v>0.5247923748640102</v>
+        <v>0.4104728409335413</v>
       </c>
       <c r="J5">
-        <v>0.5247923748640102</v>
+        <v>0.4104728409335413</v>
       </c>
       <c r="K5">
-        <v>0.5247923748640102</v>
+        <v>0.4221747432083287</v>
       </c>
       <c r="L5">
-        <v>0.5247923748640102</v>
+        <v>0.4641863852396406</v>
       </c>
       <c r="M5">
-        <v>0.5587901521946151</v>
+        <v>0.4641863852396406</v>
       </c>
       <c r="N5">
-        <v>0.5587901521946151</v>
+        <v>0.6115206356033299</v>
       </c>
       <c r="O5">
-        <v>0.6713322538167508</v>
+        <v>0.6189045244670064</v>
       </c>
       <c r="P5">
-        <v>0.6721106302708788</v>
+        <v>0.6189045244670064</v>
       </c>
       <c r="Q5">
-        <v>0.6721106302708788</v>
+        <v>0.637221005430095</v>
       </c>
       <c r="R5">
-        <v>0.6783119922494373</v>
+        <v>0.6583937692191076</v>
       </c>
       <c r="S5">
-        <v>0.7022555932043868</v>
+        <v>0.7259462046746016</v>
       </c>
       <c r="T5">
-        <v>0.7754441444981435</v>
+        <v>0.7419954681958049</v>
       </c>
       <c r="U5">
-        <v>0.7882619010694991</v>
+        <v>0.7419954681958049</v>
       </c>
       <c r="V5">
-        <v>0.7882619010694991</v>
+        <v>0.8018166187428617</v>
       </c>
       <c r="W5">
-        <v>0.8399011415818645</v>
+        <v>0.8018166187428617</v>
       </c>
       <c r="X5">
-        <v>0.8399011415818645</v>
+        <v>0.8345102031596103</v>
       </c>
       <c r="Y5">
-        <v>0.8600268220180116</v>
+        <v>0.8349716364328135</v>
       </c>
       <c r="Z5">
-        <v>0.9096666036473563</v>
+        <v>0.9231072212473133</v>
       </c>
       <c r="AA5">
-        <v>0.9638950993286132</v>
+        <v>0.9231072212473133</v>
       </c>
       <c r="AB5">
-        <v>0.9638950993286132</v>
+        <v>0.9476510895903477</v>
       </c>
       <c r="AC5">
-        <v>0.9752464059199611</v>
+        <v>0.9479695313452281</v>
       </c>
       <c r="AD5">
-        <v>0.983483779429757</v>
+        <v>0.9479695313452281</v>
       </c>
       <c r="AE5">
-        <v>0.983483779429757</v>
+        <v>0.9835120967737069</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.986737130275455</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.986737130275455</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.986737130275455</v>
       </c>
       <c r="AI5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1751,100 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2364675958786759</v>
+        <v>0.186314361635917</v>
       </c>
       <c r="E6">
-        <v>0.3184286307356462</v>
+        <v>0.3646273236039047</v>
       </c>
       <c r="F6">
-        <v>0.5534335359044671</v>
+        <v>0.4204454475336785</v>
       </c>
       <c r="G6">
-        <v>0.5563228774116183</v>
+        <v>0.4204454475336785</v>
       </c>
       <c r="H6">
-        <v>0.5779195227232574</v>
+        <v>0.4204454475336785</v>
       </c>
       <c r="I6">
-        <v>0.5779195227232574</v>
+        <v>0.4204454475336785</v>
       </c>
       <c r="J6">
-        <v>0.5779195227232574</v>
+        <v>0.4204454475336785</v>
       </c>
       <c r="K6">
-        <v>0.5779195227232574</v>
+        <v>0.4204454475336785</v>
       </c>
       <c r="L6">
-        <v>0.5919038277820877</v>
+        <v>0.4694151256528437</v>
       </c>
       <c r="M6">
-        <v>0.5919038277820877</v>
+        <v>0.4762198377728775</v>
       </c>
       <c r="N6">
-        <v>0.6794279612698939</v>
+        <v>0.6162002465074413</v>
       </c>
       <c r="O6">
-        <v>0.6808391013407368</v>
+        <v>0.6162002465074413</v>
       </c>
       <c r="P6">
-        <v>0.6808391013407368</v>
+        <v>0.6162002465074413</v>
       </c>
       <c r="Q6">
-        <v>0.6935611565992339</v>
+        <v>0.6162002465074413</v>
       </c>
       <c r="R6">
-        <v>0.6935611565992339</v>
+        <v>0.6477710960683976</v>
       </c>
       <c r="S6">
-        <v>0.8033816138475847</v>
+        <v>0.6740585028859536</v>
       </c>
       <c r="T6">
-        <v>0.8033816138475847</v>
+        <v>0.6913198142210736</v>
       </c>
       <c r="U6">
-        <v>0.8110628330250095</v>
+        <v>0.6913198142210736</v>
       </c>
       <c r="V6">
-        <v>0.8661781262841111</v>
+        <v>0.766680149578629</v>
       </c>
       <c r="W6">
-        <v>0.8661781262841111</v>
+        <v>0.766680149578629</v>
       </c>
       <c r="X6">
-        <v>0.9005779785792001</v>
+        <v>0.8011108792862214</v>
       </c>
       <c r="Y6">
-        <v>0.9292612719662325</v>
+        <v>0.8235107536531209</v>
       </c>
       <c r="Z6">
-        <v>0.9797167737033183</v>
+        <v>0.9144919802541023</v>
       </c>
       <c r="AA6">
-        <v>0.9797167737033183</v>
+        <v>0.9144919802541023</v>
       </c>
       <c r="AB6">
-        <v>0.9865142325748454</v>
+        <v>0.936583374672659</v>
       </c>
       <c r="AC6">
-        <v>0.9865142325748454</v>
+        <v>0.9509650819721781</v>
       </c>
       <c r="AD6">
-        <v>0.9865142325748454</v>
+        <v>0.9509650819721781</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>0.9891337424109089</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>0.9891337424109089</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>0.9891337424109089</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>0.9949763240647774</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1862,66 +1901,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5514669988747417</v>
+        <v>0.6436492929120887</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -1930,21 +1969,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1953,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5613810759934331</v>
+        <v>0.5389427872868723</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -1971,21 +2010,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -1994,16 +2033,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5267333589380712</v>
+        <v>0.5579346383725592</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -2012,39 +2051,39 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5202550829578054</v>
+        <v>0.6115206356033299</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2053,21 +2092,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2076,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5534335359044671</v>
+        <v>0.6162002465074413</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2094,16 +2133,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2121,66 +2160,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7080627200701265</v>
+        <v>0.7260284026664008</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -2189,21 +2228,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2212,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7017415120643259</v>
+        <v>0.7097235291948176</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -2230,21 +2269,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -2253,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8204197766592868</v>
+        <v>0.7110752983444218</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -2271,27 +2310,27 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2300,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7022555932043868</v>
+        <v>0.7259462046746016</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2312,21 +2351,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2335,16 +2374,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8033816138475847</v>
+        <v>0.766680149578629</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2353,16 +2392,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2380,66 +2419,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8131080832794686</v>
+        <v>0.8097619834753751</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -2448,21 +2487,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2471,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8267503334302868</v>
+        <v>0.8846843657682515</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -2489,21 +2528,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2512,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8204197766592868</v>
+        <v>0.8424794538459905</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -2530,36 +2569,36 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8399011415818645</v>
+        <v>0.8018166187428617</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -2571,21 +2610,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2594,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8033816138475847</v>
+        <v>0.8011108792862214</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2612,16 +2651,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2639,66 +2678,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9383313921119878</v>
+      </c>
+      <c r="G2">
         <v>24</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9092537253045664</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -2707,21 +2746,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2730,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9210872582964172</v>
+        <v>0.9004870053096932</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>61</v>
@@ -2748,21 +2787,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -2771,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9325732587551872</v>
+        <v>0.93358773975653</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>61</v>
@@ -2789,27 +2828,27 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -2818,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9096666036473563</v>
+        <v>0.9231072212473133</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>61</v>
@@ -2830,21 +2869,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2853,16 +2892,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9005779785792001</v>
+        <v>0.9144919802541023</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>61</v>
@@ -2871,16 +2910,16 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
